--- a/randomized_search_cvRED .xlsx
+++ b/randomized_search_cvRED .xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackenziecarey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackenziecarey/Documents/Wine_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="randomized_search_cvRED (Autosa" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. R^2 Score</a:t>
+              <a:t> vs. R^2 Score for Red Wine</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -357,11 +356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122741088"/>
-        <c:axId val="2121717440"/>
+        <c:axId val="2143143936"/>
+        <c:axId val="2120698160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122741088"/>
+        <c:axId val="2143143936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -466,12 +465,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121717440"/>
+        <c:crossAx val="2120698160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121717440"/>
+        <c:axId val="2120698160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122741088"/>
+        <c:crossAx val="2143143936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -672,7 +671,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Error</a:t>
+              <a:t> vs. Error for Red Wine</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -953,11 +952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122762496"/>
-        <c:axId val="2120811760"/>
+        <c:axId val="-2114844432"/>
+        <c:axId val="2082820976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122762496"/>
+        <c:axId val="-2114844432"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1057,12 +1056,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120811760"/>
+        <c:crossAx val="2082820976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120811760"/>
+        <c:axId val="2082820976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122762496"/>
+        <c:crossAx val="-2114844432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
